--- a/moyusi/Keywords/Web/秒商品-进行中检查.xlsx
+++ b/moyusi/Keywords/Web/秒商品-进行中检查.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -200,21 +200,6 @@
   </si>
   <si>
     <t>点击-停止投放按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-message-box</t>
-  </si>
-  <si>
-    <t>el-message-box</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点_class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-提示窗口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -369,9 +354,6 @@
     <t>检查点-秒商品查看详情按钮</t>
   </si>
   <si>
-    <t>此操作将停止投放该秒商品, 是否继续?</t>
-  </si>
-  <si>
     <t>优惠券</t>
   </si>
   <si>
@@ -434,6 +416,88 @@
   </si>
   <si>
     <t>剩余数量：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>此操作将停止投放该秒商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否继续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>此操作将停止投放该秒商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否继续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -843,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -932,13 +996,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="13.5">
@@ -946,24 +1010,24 @@
         <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1011,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
@@ -1025,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>20</v>
@@ -1039,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>22</v>
@@ -1053,10 +1117,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1091,10 +1155,10 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1129,10 +1193,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1153,26 +1217,26 @@
         <v>26</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" s="16" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>74</v>
       </c>
       <c r="F23" s="19"/>
     </row>
@@ -1181,11 +1245,11 @@
         <v>26</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F24" s="19"/>
     </row>
@@ -1208,7 +1272,7 @@
       </c>
       <c r="B26" s="12"/>
       <c r="D26" s="22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>33</v>
@@ -1220,14 +1284,14 @@
         <v>27</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="9" customFormat="1">
@@ -1235,13 +1299,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="9" customFormat="1">
@@ -1249,13 +1313,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="9" customFormat="1">
@@ -1263,13 +1327,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1">
@@ -1277,13 +1341,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1">
@@ -1291,13 +1355,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="9" customFormat="1">
@@ -1305,13 +1369,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1">
@@ -1319,13 +1383,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1361,10 +1425,10 @@
         <v>9</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F37" s="22"/>
     </row>
@@ -1389,7 +1453,7 @@
         <v>40</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>40</v>
@@ -1403,7 +1467,7 @@
         <v>41</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>42</v>
@@ -1417,7 +1481,7 @@
         <v>44</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>43</v>
@@ -1431,7 +1495,7 @@
         <v>45</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>45</v>
@@ -1486,123 +1550,96 @@
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A48" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>87</v>
+      <c r="D49" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="F49" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="20" customFormat="1">
+      <c r="A50" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>55</v>
+      <c r="D51" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="20" customFormat="1">
+        <v>25</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="20" customFormat="1" ht="13.5">
       <c r="A52" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="20" customFormat="1" ht="13.5">
-      <c r="A54" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
+      <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="D55" t="s">
+      <c r="B53" s="6"/>
+      <c r="D53" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F53" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16.5">
-      <c r="B56" s="23"/>
+    <row r="54" spans="1:6" ht="16.5">
+      <c r="B54" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/moyusi/Keywords/Web/秒商品-进行中检查.xlsx
+++ b/moyusi/Keywords/Web/秒商品-进行中检查.xlsx
@@ -141,10 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>if_id包含</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>如果有classname</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -308,9 +304,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>秒杀券</t>
-  </si>
-  <si>
     <t>输入-秒杀券</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -325,10 +318,6 @@
   </si>
   <si>
     <t>点击-秒杀</t>
-  </si>
-  <si>
-    <t>activity-box</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>每人限领：</t>
@@ -497,6 +486,18 @@
       </rPr>
       <t>?</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_文本包含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀券</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -909,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -996,13 +997,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="13.5">
@@ -1010,13 +1011,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1024,10 +1025,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1048,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1075,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
@@ -1089,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>20</v>
@@ -1103,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>22</v>
@@ -1117,10 +1118,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1128,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1155,10 +1156,10 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1166,7 +1167,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1193,10 +1194,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1217,26 +1218,26 @@
         <v>26</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" s="16" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" s="19"/>
     </row>
@@ -1245,11 +1246,11 @@
         <v>26</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="19"/>
     </row>
@@ -1268,14 +1269,14 @@
     </row>
     <row r="26" spans="1:6" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="D26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="D26" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="F26" s="14"/>
     </row>
@@ -1284,14 +1285,14 @@
         <v>27</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="9" customFormat="1">
@@ -1299,13 +1300,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="9" customFormat="1">
@@ -1313,13 +1314,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="9" customFormat="1">
@@ -1327,13 +1328,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1">
@@ -1341,13 +1342,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1">
@@ -1355,13 +1356,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="9" customFormat="1">
@@ -1369,13 +1370,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1">
@@ -1383,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1425,10 +1426,10 @@
         <v>9</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F37" s="22"/>
     </row>
@@ -1450,13 +1451,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="9" customFormat="1" ht="13.5">
@@ -1464,13 +1465,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="9" customFormat="1" ht="13.5">
@@ -1478,13 +1479,13 @@
         <v>9</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="9" customFormat="1" ht="13.5">
@@ -1492,13 +1493,13 @@
         <v>9</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1506,10 +1507,10 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1530,10 +1531,10 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1554,13 +1555,13 @@
         <v>9</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1568,10 +1569,10 @@
         <v>26</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1579,24 +1580,24 @@
         <v>9</v>
       </c>
       <c r="D49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F49" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="20" customFormat="1">
       <c r="A50" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="F50" s="21"/>
     </row>
@@ -1616,10 +1617,10 @@
     </row>
     <row r="52" spans="1:6" s="20" customFormat="1" ht="13.5">
       <c r="A52" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F52" s="21"/>
     </row>

--- a/moyusi/Keywords/Web/秒商品-进行中检查.xlsx
+++ b/moyusi/Keywords/Web/秒商品-进行中检查.xlsx
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>

--- a/moyusi/Keywords/Web/秒商品-进行中检查.xlsx
+++ b/moyusi/Keywords/Web/秒商品-进行中检查.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,14 +150,6 @@
   </si>
   <si>
     <t>el-select__caret</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>else_if_id不包含</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果没有classname</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -306,9 +298,6 @@
   <si>
     <t>输入-秒杀券</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity-box</t>
   </si>
   <si>
     <t>秒杀</t>
@@ -908,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
@@ -997,13 +986,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="13.5">
@@ -1011,13 +1000,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1025,10 +1014,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1076,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
@@ -1090,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>20</v>
@@ -1104,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>22</v>
@@ -1118,10 +1107,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1156,10 +1145,10 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1194,10 +1183,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1218,26 +1207,26 @@
         <v>26</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" s="16" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F23" s="19"/>
     </row>
@@ -1246,11 +1235,11 @@
         <v>26</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" s="19"/>
     </row>
@@ -1269,11 +1258,11 @@
     </row>
     <row r="26" spans="1:6" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B26" s="12"/>
       <c r="D26" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>32</v>
@@ -1285,14 +1274,14 @@
         <v>27</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="9" customFormat="1">
@@ -1300,13 +1289,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="9" customFormat="1">
@@ -1314,13 +1303,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="9" customFormat="1">
@@ -1328,13 +1317,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1">
@@ -1342,13 +1331,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1">
@@ -1356,13 +1345,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="9" customFormat="1">
@@ -1370,13 +1359,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1">
@@ -1384,13 +1373,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1426,10 +1415,10 @@
         <v>9</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F37" s="22"/>
     </row>
@@ -1451,13 +1440,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="9" customFormat="1" ht="13.5">
@@ -1465,13 +1454,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="9" customFormat="1" ht="13.5">
@@ -1479,13 +1468,13 @@
         <v>9</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="9" customFormat="1" ht="13.5">
@@ -1493,13 +1482,13 @@
         <v>9</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1507,10 +1496,10 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1531,10 +1520,10 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -1555,13 +1544,13 @@
         <v>9</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1569,10 +1558,10 @@
         <v>26</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1580,24 +1569,21 @@
         <v>9</v>
       </c>
       <c r="D49" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="20" customFormat="1" ht="13.5">
+      <c r="A50" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="20" customFormat="1">
-      <c r="A50" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="F50" s="21"/>
     </row>
@@ -1615,32 +1601,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="20" customFormat="1" ht="13.5">
-      <c r="A52" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="D53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.5">
-      <c r="B54" s="23"/>
+    <row r="52" spans="1:6" ht="16.5">
+      <c r="B52" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
